--- a/test_data/期初导入数据/无形资产.xlsx
+++ b/test_data/期初导入数据/无形资产.xlsx
@@ -160,8 +160,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\);\-_ \ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -197,16 +197,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,13 +228,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,18 +257,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,25 +287,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,6 +318,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
@@ -309,38 +339,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,13 +373,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,67 +481,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +511,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,79 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,13 +604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,17 +634,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,39 +692,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -700,10 +700,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -712,136 +712,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1270,7 +1270,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.5" customHeight="1"/>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="17">
-        <v>42370</v>
+        <v>39814</v>
       </c>
       <c r="J2" s="18"/>
     </row>
@@ -1365,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="I3" s="17">
-        <v>42045</v>
+        <v>38393</v>
       </c>
       <c r="J3" s="18"/>
     </row>
@@ -1390,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="17">
-        <v>42370</v>
+        <v>38718</v>
       </c>
       <c r="J4" s="18"/>
     </row>
@@ -1415,7 +1415,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="17">
-        <v>41707</v>
+        <v>38055</v>
       </c>
       <c r="J5" s="18"/>
     </row>
@@ -1440,7 +1440,7 @@
         <v>20</v>
       </c>
       <c r="I6" s="17">
-        <v>42705</v>
+        <v>39052</v>
       </c>
       <c r="J6" s="18"/>
     </row>
